--- a/Codes/TEXT_Extraction_Results.xlsx
+++ b/Codes/TEXT_Extraction_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasif\Documents\Qatar-Environment-and-Energy-Research-Institute-Internship-Work-\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F57889-F8B4-418A-ADB3-EB36D5F2F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AD097-1D07-4C4C-9580-AA4B98586C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EEBC1CC-6617-41D9-9CB0-20294E117B47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="196">
   <si>
     <t>polymer</t>
   </si>
@@ -915,6 +915,18 @@
       </rPr>
       <t xml:space="preserve"> “relative wt%” added</t>
     </r>
+  </si>
+  <si>
+    <t>monomer structure</t>
+  </si>
+  <si>
+    <t>importance</t>
+  </si>
+  <si>
+    <t>rank as u wish</t>
+  </si>
+  <si>
+    <t>Aim for 100 pdfs/aim to have parameters with figures</t>
   </si>
 </sst>
 </file>
@@ -943,12 +955,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -963,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,6 +991,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,6 +1010,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149086</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>927999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>397564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD0CD63-E55A-AE71-B11F-71E2BFDF2E1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22843434" y="165651"/>
+          <a:ext cx="7272478" cy="4041913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>370114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>934628</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>367749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DC88FD-87F8-FFB0-DF41-41A489065A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30545314" y="370114"/>
+          <a:ext cx="6246857" cy="3829406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1308,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DED814-B8E2-47E3-B84F-9D03BE299FD7}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="150.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1322,23 +1436,23 @@
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1356,8 +1470,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1508,14 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1426,8 +1549,11 @@
       <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1461,8 +1587,14 @@
       <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +1664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1602,7 +1734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1637,7 +1769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1707,7 +1839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
@@ -1742,7 +1874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1777,7 +1909,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
@@ -1812,7 +1944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -1847,7 +1979,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2409,5 +2541,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>